--- a/JankenQuizObjectAnsJunit/src/main/resources/JankenCuiGameApplicationImpl.xlsx
+++ b/JankenQuizObjectAnsJunit/src/main/resources/JankenCuiGameApplicationImpl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souken\git\test-for-janken-quiz\JankenQuizObjectAnsJunit\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BA743D-E211-4DE2-964F-28D9CBE41BB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33ADF2C6-1155-42EB-A1A2-87C52A949CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{634438A6-7B97-46D3-85CA-95EACAEAF8F5}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{634438A6-7B97-46D3-85CA-95EACAEAF8F5}"/>
   </bookViews>
   <sheets>
     <sheet name="action" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2719" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="147">
   <si>
     <t>条件</t>
     <rPh sb="0" eb="2">
@@ -441,17 +441,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NullPointerException</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>含有</t>
-    <rPh sb="0" eb="2">
-      <t>ガンユウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>error.stop</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -466,13 +455,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>含有</t>
-    <rPh sb="0" eb="2">
-      <t>ガンユウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>janken.msg.create.cpu</t>
   </si>
   <si>
@@ -596,10 +578,6 @@
     <t>範囲外の数値が入力されました。</t>
   </si>
   <si>
-    <t>throw</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>while</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -823,10 +801,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>this.winHand != JankenParam.DRAW.getInt()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>janken.msg.start</t>
   </si>
   <si>
@@ -838,6 +812,46 @@
   </si>
   <si>
     <t>janken.msg.end</t>
+  </si>
+  <si>
+    <t>Exception Message</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>isCheckJankenPlayerCount()
+(if)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>this.winHand != JankenParam.DRAW.getInt()
+(if)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hasGameContinue() == false
+(if)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rockFlag == true &amp;&amp; 
+scissorsFlag == true &amp;&amp; 
+paperFlag == false
+(if)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rockFlag == false &amp;&amp; 
+scissorsFlag == true &amp;&amp; 
+paperFlag == true
+(if)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rockFlag == true &amp;&amp; 
+scissorsFlag == false &amp;&amp; 
+paperFlag == true
+(if)</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1068,7 +1082,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1123,6 +1137,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1153,14 +1176,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1476,10 +1505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5BC3DC-6817-455D-855C-5F1FE7D2FF6C}">
-  <dimension ref="A3:Z58"/>
+  <dimension ref="A3:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1488,4319 +1517,1370 @@
     <col min="3" max="3" width="48.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1">
+      <c r="B3" s="18"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>2</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>3</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>4</v>
       </c>
-      <c r="H3" s="1">
-        <v>5</v>
-      </c>
-      <c r="I3" s="1">
-        <v>6</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="H3" s="2">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2">
         <v>7</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="2">
         <v>8</v>
       </c>
-      <c r="L3" s="1">
-        <v>9</v>
-      </c>
-      <c r="M3" s="1">
-        <v>10</v>
-      </c>
-      <c r="N3" s="1">
-        <v>11</v>
-      </c>
-      <c r="O3" s="1">
-        <v>12</v>
-      </c>
-      <c r="P3" s="1">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>14</v>
-      </c>
-      <c r="R3" s="1">
-        <v>15</v>
-      </c>
-      <c r="S3" s="1">
-        <v>16</v>
-      </c>
-      <c r="T3" s="1">
-        <v>17</v>
-      </c>
-      <c r="U3" s="1">
-        <v>18</v>
-      </c>
-      <c r="V3" s="1">
-        <v>19</v>
-      </c>
-      <c r="W3" s="1">
-        <v>20</v>
-      </c>
-      <c r="X3" s="1">
-        <v>21</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>22</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
+        <v>112</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="C5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="11"/>
-      <c r="B6" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="B6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="B7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="11"/>
       <c r="B8" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="C8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11" t="s">
+      <c r="C10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="11"/>
+      <c r="B12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="6" t="b">
+      <c r="C15" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17" s="11"/>
+      <c r="B17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="6" t="b">
+      <c r="D18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11" t="s">
+      <c r="D19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="21.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12" t="s">
+      <c r="C20" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z19" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z21" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z22" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="D22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="11"/>
-      <c r="B23" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z23" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="B23" s="11"/>
+      <c r="C23" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
-      <c r="C24" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z24" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="C24" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z25" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.45">
+        <v>126</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="11"/>
       <c r="B26" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z26" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
-      <c r="C27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z27" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A28" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z28" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="C27" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A28" s="11"/>
+      <c r="B28" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z29" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="B29" s="12"/>
+      <c r="C29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A31" s="11"/>
+      <c r="B31" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z30" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z31" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="C31" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="11"/>
-      <c r="B32" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z32" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="B32" s="12"/>
+      <c r="C32" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
-      <c r="C33" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z33" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="C33" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="11"/>
-      <c r="B34" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z34" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="B34" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z35" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="B35" s="17"/>
+      <c r="C35" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z36" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="B36" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="11"/>
-      <c r="B37" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z37" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="B37" s="11"/>
+      <c r="C37" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="11"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y38" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z38" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="B38" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z39" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="B39" s="17"/>
+      <c r="C39" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="11"/>
       <c r="B40" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="C40" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z40" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="C40" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
-      <c r="C41" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y41" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z41" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="C41" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="11"/>
-      <c r="B42" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z42" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="B42" s="11"/>
+      <c r="C42" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z43" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="C43" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z44" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z45" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z46" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z47" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z48" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z49" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z50" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y51" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z51" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y52" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z52" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y53" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z53" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y54" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z54" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R55" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X55" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y55" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z55" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X56" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z56" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y57" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z57" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A58" s="11"/>
-      <c r="B58" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="W58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z58" s="1" t="s">
+      <c r="B44" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="2" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A28:A58"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B57"/>
-    <mergeCell ref="A4:A27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
+  <mergeCells count="18">
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A22:A44"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="A4:A21"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5812,7 +2892,7 @@
   <dimension ref="A3:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="A3:F9"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5823,8 +2903,8 @@
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="2">
         <v>1</v>
       </c>
@@ -5892,10 +2972,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
@@ -5940,11 +3020,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5956,7 +3037,7 @@
   <dimension ref="A3:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5967,8 +3048,8 @@
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="2">
         <v>1</v>
       </c>
@@ -5984,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -6036,10 +3117,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
@@ -6084,11 +3165,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6100,7 +3182,7 @@
   <dimension ref="A3:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6111,21 +3193,21 @@
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -6136,16 +3218,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6176,13 +3261,13 @@
     </row>
     <row r="4" spans="1:4" ht="36" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -6193,10 +3278,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -6213,7 +3298,7 @@
   <dimension ref="A2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F6"/>
+      <selection activeCell="C3" sqref="C3:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6310,6 +3395,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:F5">
+    <sortCondition ref="C3:C5"/>
+  </sortState>
   <mergeCells count="2">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
@@ -6323,8 +3411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B756B3-0CCB-4FEF-B812-B5F711EEFDE9}">
   <dimension ref="A3:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:E23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6947,47 +4035,45 @@
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21" s="14"/>
       <c r="B21" s="11" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="1" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="14"/>
-      <c r="B22" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>42</v>
@@ -6999,10 +4085,10 @@
         <v>42</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>42</v>
@@ -7020,7 +4106,7 @@
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>42</v>
@@ -7035,10 +4121,10 @@
         <v>42</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>42</v>
@@ -7053,7 +4139,7 @@
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>42</v>
@@ -7070,13 +4156,13 @@
       <c r="J24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M24" s="1" t="s">
+      <c r="K24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7086,7 +4172,7 @@
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>42</v>
@@ -7103,53 +4189,55 @@
       <c r="J25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>42</v>
+      <c r="K25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="14"/>
-      <c r="B26" s="11"/>
+      <c r="B26" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="1" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B22:D26"/>
+    <mergeCell ref="B21:D25"/>
     <mergeCell ref="A13:A26"/>
     <mergeCell ref="A4:A12"/>
     <mergeCell ref="B7:D8"/>
@@ -7160,7 +4248,7 @@
     <mergeCell ref="B18:D20"/>
     <mergeCell ref="B13:D14"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7171,8 +4259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9043AD0C-4132-447D-B4B0-8422854B73EA}">
   <dimension ref="A3:M26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7519,7 +4607,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -7556,7 +4644,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A14" s="11"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -7589,7 +4677,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A15" s="11"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="11" t="s">
         <v>33</v>
       </c>
@@ -7624,7 +4712,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A16" s="11"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="11" t="s">
         <v>23</v>
       </c>
@@ -7659,7 +4747,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A17" s="11"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -7692,7 +4780,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A18" s="11"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="11" t="s">
         <v>27</v>
       </c>
@@ -7727,7 +4815,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A19" s="11"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -7760,7 +4848,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A20" s="11"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -7793,49 +4881,47 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A21" s="11"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="11" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="1" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="A22" s="32"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>42</v>
@@ -7847,10 +4933,10 @@
         <v>42</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>42</v>
@@ -7863,12 +4949,12 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A23" s="11"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>42</v>
@@ -7883,25 +4969,25 @@
         <v>42</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A24" s="11"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>42</v>
@@ -7919,22 +5005,22 @@
         <v>42</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A25" s="11"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>42</v>
@@ -7955,60 +5041,61 @@
         <v>42</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="12">
+    <mergeCell ref="B21:D25"/>
+    <mergeCell ref="B13:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D17"/>
+    <mergeCell ref="B18:D20"/>
+    <mergeCell ref="B26:D26"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="A4:A12"/>
     <mergeCell ref="B4:D6"/>
     <mergeCell ref="B7:D8"/>
     <mergeCell ref="B9:D10"/>
     <mergeCell ref="B11:D12"/>
-    <mergeCell ref="B22:D26"/>
-    <mergeCell ref="A13:A26"/>
-    <mergeCell ref="B13:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D17"/>
-    <mergeCell ref="B18:D20"/>
-    <mergeCell ref="B21:D21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8020,7 +5107,7 @@
   <dimension ref="A3:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8159,7 +5246,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="15" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -8184,7 +5271,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="11"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -8205,7 +5292,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="11"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -8226,14 +5313,14 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="11"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="11" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="1" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>6</v>
@@ -8249,14 +5336,14 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="1"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="11" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="1" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>6</v>
@@ -8273,14 +5360,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B9:D11"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:D11"/>
-    <mergeCell ref="B12:D12"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="B4:D6"/>
     <mergeCell ref="B7:D8"/>
+    <mergeCell ref="A9:A13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8289,10 +5376,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2FF7FD-5784-4350-8D8A-CCD92DCB577D}">
-  <dimension ref="A3:Q39"/>
+  <dimension ref="A3:P44"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -8300,7 +5387,7 @@
     <col min="5" max="5" width="38.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -8336,12 +5423,9 @@
       <c r="O3" s="2">
         <v>10</v>
       </c>
-      <c r="P3" s="2">
-        <v>11</v>
-      </c>
-      <c r="Q3" s="9"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="P3" s="9"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
@@ -8383,11 +5467,8 @@
       <c r="O4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="P4" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -8425,11 +5506,8 @@
       <c r="O5" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P5" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" s="11"/>
       <c r="B6" s="11" t="s">
         <v>62</v>
@@ -8469,11 +5547,8 @@
       <c r="O6" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="P6" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -8511,11 +5586,8 @@
       <c r="O7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="11"/>
       <c r="B8" s="11" t="s">
         <v>60</v>
@@ -8555,11 +5627,8 @@
       <c r="O8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -8597,11 +5666,8 @@
       <c r="O9" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P9" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" s="11"/>
       <c r="B10" s="12" t="s">
         <v>38</v>
@@ -8641,11 +5707,8 @@
       <c r="O10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="P10" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -8683,11 +5746,8 @@
       <c r="O11" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P11" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -8725,18 +5785,15 @@
       <c r="O12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="P12" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" s="11"/>
       <c r="B13" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="6" t="s">
         <v>46</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -8769,16 +5826,13 @@
       <c r="O13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" s="11"/>
       <c r="B14" s="12"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="6" t="s">
         <v>47</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -8811,16 +5865,13 @@
       <c r="O14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="P14" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="6" t="s">
         <v>48</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -8853,16 +5904,13 @@
       <c r="O15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="P15" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" s="11"/>
       <c r="B16" s="12"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="6" t="s">
         <v>49</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -8895,16 +5943,13 @@
       <c r="O16" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P16" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="6" t="s">
         <v>51</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -8937,18 +5982,15 @@
       <c r="O17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="P17" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="11"/>
       <c r="B18" s="12" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="6" t="s">
         <v>52</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -8981,16 +6023,13 @@
       <c r="O18" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="P18" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="6" t="s">
         <v>53</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -9023,16 +6062,13 @@
       <c r="O19" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="P19" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="6" t="s">
         <v>54</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -9065,16 +6101,13 @@
       <c r="O20" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="P20" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="6" t="s">
         <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -9107,16 +6140,13 @@
       <c r="O21" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P21" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -9149,18 +6179,15 @@
       <c r="O22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="P22" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" s="11"/>
       <c r="B23" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -9193,16 +6220,13 @@
       <c r="O23" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="P23" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -9235,11 +6259,8 @@
       <c r="O24" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P24" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" s="15" t="s">
         <v>41</v>
       </c>
@@ -9248,7 +6269,7 @@
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F25" s="2" t="s">
@@ -9281,16 +6302,13 @@
       <c r="O25" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="P25" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" s="16"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="6" t="s">
         <v>30</v>
       </c>
       <c r="F26" s="2" t="s">
@@ -9323,16 +6341,13 @@
       <c r="O26" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P26" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" s="16"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -9365,18 +6380,15 @@
       <c r="O27" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="P27" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" s="16"/>
       <c r="B28" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="6" t="s">
         <v>52</v>
       </c>
       <c r="F28" s="2" t="s">
@@ -9409,16 +6421,13 @@
       <c r="O28" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="P28" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29" s="16"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="6" t="s">
         <v>53</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -9451,16 +6460,13 @@
       <c r="O29" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="P29" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A30" s="16"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="6" t="s">
         <v>54</v>
       </c>
       <c r="F30" s="2" t="s">
@@ -9493,16 +6499,13 @@
       <c r="O30" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="P30" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A31" s="16"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="6" t="s">
         <v>59</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -9535,278 +6538,259 @@
       <c r="O31" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P31" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="32" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="16"/>
-      <c r="B32" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="1" t="s">
-        <v>52</v>
+      <c r="B32" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="P32" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="16"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="1" t="s">
-        <v>53</v>
+      <c r="B33" s="23"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="O33" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="P33" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="16"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="1" t="s">
-        <v>54</v>
+      <c r="B34" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="22"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="P34" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="16"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="1" t="s">
-        <v>55</v>
+      <c r="B35" s="23"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="O35" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="P35" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="16"/>
-      <c r="B36" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="1" t="s">
-        <v>12</v>
+      <c r="B36" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" s="22"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="P36" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="16"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="1" t="s">
-        <v>66</v>
+      <c r="B37" s="23"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="O37" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="P37" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" s="16"/>
       <c r="B38" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="1" t="s">
-        <v>57</v>
+      <c r="E38" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>42</v>
@@ -9830,22 +6814,19 @@
         <v>42</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="O38" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="P38" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A39" s="17"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A39" s="16"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
-      <c r="E39" s="1" t="s">
-        <v>68</v>
+      <c r="E39" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>42</v>
@@ -9854,7 +6835,7 @@
         <v>42</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>42</v>
@@ -9875,29 +6856,228 @@
         <v>42</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="P39" s="8" t="s">
-        <v>42</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A40" s="16"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A41" s="16"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A42" s="16"/>
+      <c r="B42" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O42" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A43" s="16"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A44" s="16"/>
+      <c r="B44" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O44" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="18">
+    <mergeCell ref="B42:D43"/>
+    <mergeCell ref="A4:A24"/>
+    <mergeCell ref="B8:D9"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="B38:D41"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B25:D27"/>
+    <mergeCell ref="B28:D31"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="B34:D35"/>
+    <mergeCell ref="B36:D37"/>
+    <mergeCell ref="A25:A44"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B10:D12"/>
     <mergeCell ref="B13:D17"/>
     <mergeCell ref="B18:D22"/>
     <mergeCell ref="B23:D24"/>
-    <mergeCell ref="B38:D39"/>
-    <mergeCell ref="A25:A39"/>
-    <mergeCell ref="A4:A24"/>
-    <mergeCell ref="B8:D9"/>
-    <mergeCell ref="B4:D5"/>
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="B32:D35"/>
-    <mergeCell ref="B36:D37"/>
-    <mergeCell ref="B25:D27"/>
-    <mergeCell ref="B28:D31"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9909,7 +7089,7 @@
   <dimension ref="A3:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B18" sqref="B18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -10005,11 +7185,11 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="16"/>
-      <c r="B7" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
+      <c r="B7" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="6">
         <v>1</v>
       </c>
@@ -10033,8 +7213,8 @@
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="1" t="s">
-        <v>84</v>
+      <c r="E8" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>5</v>
@@ -10054,8 +7234,8 @@
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="1" t="s">
-        <v>85</v>
+      <c r="E9" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>5</v>
@@ -10072,13 +7252,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="16"/>
-      <c r="B10" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="19"/>
+      <c r="B10" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="22"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="1" t="s">
-        <v>82</v>
+      <c r="E10" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>5</v>
@@ -10095,11 +7275,11 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="17"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="1" t="s">
-        <v>83</v>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>42</v>
@@ -10115,7 +7295,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="33" t="s">
         <v>41</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -10123,7 +7303,7 @@
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -10140,11 +7320,11 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="16"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -10161,11 +7341,11 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="16"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -10182,13 +7362,13 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="16"/>
-      <c r="B15" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="1" t="b">
+      <c r="A15" s="34"/>
+      <c r="B15" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="6" t="b">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -10205,11 +7385,11 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="16"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="1" t="b">
+      <c r="A16" s="34"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="6" t="b">
         <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -10226,14 +7406,14 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="16"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="11" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="1" t="s">
-        <v>12</v>
+      <c r="E17" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>6</v>
@@ -10249,14 +7429,14 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="17"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="11" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="1" t="s">
-        <v>87</v>
+      <c r="E18" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>6</v>
@@ -10272,18 +7452,17 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B10:D11"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="B15:D16"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:D6"/>
     <mergeCell ref="B8:D9"/>
     <mergeCell ref="B12:D14"/>
-    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="B10:D11"/>
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="B15:D16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10295,7 +7474,7 @@
   <dimension ref="A3:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E4" sqref="E4:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -10382,11 +7561,11 @@
         <v>41</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="1" t="b">
+      <c r="E7" s="6" t="b">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -10404,7 +7583,7 @@
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="1" t="b">
+      <c r="E8" s="6" t="b">
         <v>0</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -10424,7 +7603,7 @@
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="1" t="b">
+      <c r="E9" s="6" t="b">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -10442,7 +7621,7 @@
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="1" t="b">
+      <c r="E10" s="6" t="b">
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -10471,10 +7650,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010E08D5-8E4E-45F5-B16C-809EDCA6E87C}">
-  <dimension ref="A3:Q31"/>
+  <dimension ref="A3:Q30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -10522,12 +7701,12 @@
         <v>0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>5</v>
@@ -10560,7 +7739,7 @@
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>6</v>
@@ -10590,7 +7769,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="11"/>
       <c r="B6" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -10661,7 +7840,7 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>42</v>
@@ -10694,7 +7873,7 @@
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>42</v>
@@ -10757,12 +7936,12 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="11"/>
       <c r="B11" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="1" t="s">
-        <v>82</v>
+      <c r="E11" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>5</v>
@@ -10794,8 +7973,8 @@
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="1" t="s">
-        <v>83</v>
+      <c r="E12" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>42</v>
@@ -10825,12 +8004,12 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" s="11"/>
       <c r="B13" s="12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="1" t="s">
-        <v>82</v>
+      <c r="E13" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>5</v>
@@ -10862,8 +8041,8 @@
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="1" t="s">
-        <v>83</v>
+      <c r="E14" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>42</v>
@@ -10895,12 +8074,12 @@
         <v>41</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="1" t="s">
-        <v>104</v>
+      <c r="E15" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>5</v>
@@ -10932,7 +8111,7 @@
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -10963,12 +8142,12 @@
     <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="11"/>
       <c r="B17" s="11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="1" t="s">
-        <v>99</v>
+      <c r="E17" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>42</v>
@@ -11000,8 +8179,8 @@
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="1" t="s">
-        <v>100</v>
+      <c r="E18" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>5</v>
@@ -11031,11 +8210,11 @@
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="11"/>
       <c r="B19" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="1">
+      <c r="E19" s="6">
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -11068,7 +8247,7 @@
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="1">
+      <c r="E20" s="6">
         <v>2</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -11101,8 +8280,8 @@
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="1" t="s">
-        <v>92</v>
+      <c r="E21" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>6</v>
@@ -11136,7 +8315,7 @@
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="1" t="b">
+      <c r="E22" s="6" t="b">
         <v>1</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -11169,7 +8348,7 @@
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
-      <c r="E23" s="1" t="b">
+      <c r="E23" s="6" t="b">
         <v>0</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -11200,12 +8379,12 @@
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="11"/>
       <c r="B24" s="11" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="1" t="s">
-        <v>12</v>
+      <c r="E24" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>42</v>
@@ -11214,13 +8393,13 @@
         <v>42</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>42</v>
@@ -11234,13 +8413,11 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="11"/>
-      <c r="B25" s="11" t="s">
-        <v>67</v>
-      </c>
+      <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="1" t="s">
-        <v>74</v>
+      <c r="E25" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>42</v>
@@ -11249,13 +8426,13 @@
         <v>42</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>42</v>
@@ -11272,8 +8449,8 @@
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="1" t="s">
-        <v>96</v>
+      <c r="E26" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>42</v>
@@ -11285,10 +8462,10 @@
         <v>42</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>42</v>
@@ -11305,26 +8482,26 @@
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="1" t="s">
-        <v>56</v>
+      <c r="E27" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>42</v>
@@ -11338,29 +8515,29 @@
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="1" t="s">
-        <v>105</v>
+      <c r="E28" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="J28" s="10" t="s">
         <v>32</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>42</v>
@@ -11371,8 +8548,8 @@
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="1" t="s">
-        <v>68</v>
+      <c r="E29" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>42</v>
@@ -11393,96 +8570,62 @@
         <v>42</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
+      <c r="B30" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="1" t="s">
-        <v>93</v>
+      <c r="E30" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J31" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
+    <mergeCell ref="B17:D18"/>
+    <mergeCell ref="A15:A30"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="B19:D21"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B24:D29"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="A4:A14"/>
     <mergeCell ref="B4:D5"/>
     <mergeCell ref="B6:D10"/>
     <mergeCell ref="B13:D14"/>
     <mergeCell ref="B11:D12"/>
-    <mergeCell ref="B17:D18"/>
-    <mergeCell ref="A15:A31"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="B19:D21"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B25:D30"/>
-    <mergeCell ref="B24:D24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JankenQuizObjectAnsJunit/src/main/resources/JankenCuiGameApplicationImpl.xlsx
+++ b/JankenQuizObjectAnsJunit/src/main/resources/JankenCuiGameApplicationImpl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souken\git\test-for-janken-quiz\JankenQuizObjectAnsJunit\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33ADF2C6-1155-42EB-A1A2-87C52A949CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB3D818-574A-4529-AA77-679E6DBAF6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{634438A6-7B97-46D3-85CA-95EACAEAF8F5}"/>
+    <workbookView xWindow="28680" yWindow="15" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="8" xr2:uid="{634438A6-7B97-46D3-85CA-95EACAEAF8F5}"/>
   </bookViews>
   <sheets>
     <sheet name="action" sheetId="2" r:id="rId1"/>
@@ -394,9 +394,6 @@
   </si>
   <si>
     <t>システムエラーが発生しました。終了します。</t>
-  </si>
-  <si>
-    <t>システムエラーが発生しました。終了します。</t>
     <rPh sb="8" eb="10">
       <t>ハッセイ</t>
     </rPh>
@@ -851,6 +848,10 @@
 scissorsFlag == false &amp;&amp; 
 paperFlag == true
 (if)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムエラーが発生しました。終了します。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1082,7 +1083,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1116,11 +1117,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1132,18 +1154,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1176,20 +1186,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1507,8 +1505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5BC3DC-6817-455D-855C-5F1FE7D2FF6C}">
   <dimension ref="A3:K44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1519,8 +1517,8 @@
   <sheetData>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="20"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="2">
         <v>1</v>
       </c>
@@ -1547,141 +1545,141 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="16"/>
+      <c r="B6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="11"/>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="16"/>
+      <c r="B7" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="11"/>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16" t="s">
         <v>116</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11" t="s">
-        <v>117</v>
       </c>
       <c r="C8" s="6" t="b">
         <v>1</v>
@@ -1712,8 +1710,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="6" t="b">
         <v>0</v>
       </c>
@@ -1743,267 +1741,267 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="16"/>
+      <c r="B12" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C12" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="11"/>
-      <c r="B12" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12" t="s">
+      <c r="D16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17" s="16"/>
+      <c r="B17" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="11"/>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16" t="s">
         <v>122</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11" t="s">
-        <v>123</v>
       </c>
       <c r="C18" s="6" t="b">
         <v>1</v>
@@ -2034,13 +2032,13 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="6" t="b">
         <v>0</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>5</v>
@@ -2065,268 +2063,268 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="6" t="s">
+      <c r="D25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12" t="s">
+      <c r="C26" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12" t="s">
-        <v>130</v>
-      </c>
       <c r="C28" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>42</v>
@@ -2354,13 +2352,13 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>6</v>
@@ -2385,10 +2383,10 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>42</v>
@@ -2416,12 +2414,12 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12" t="s">
-        <v>131</v>
+      <c r="A31" s="16"/>
+      <c r="B31" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>42</v>
@@ -2449,13 +2447,13 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>5</v>
@@ -2480,10 +2478,10 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>42</v>
@@ -2511,9 +2509,9 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A34" s="11"/>
-      <c r="B34" s="31" t="s">
-        <v>141</v>
+      <c r="A34" s="16"/>
+      <c r="B34" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="C34" s="6" t="b">
         <v>1</v>
@@ -2544,8 +2542,8 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A35" s="11"/>
-      <c r="B35" s="17"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="19"/>
       <c r="C35" s="6" t="b">
         <v>0</v>
       </c>
@@ -2575,9 +2573,9 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12" t="s">
-        <v>142</v>
+      <c r="A36" s="16"/>
+      <c r="B36" s="17" t="s">
+        <v>141</v>
       </c>
       <c r="C36" s="6" t="b">
         <v>1</v>
@@ -2608,8 +2606,8 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
       <c r="C37" s="6" t="b">
         <v>0</v>
       </c>
@@ -2639,9 +2637,9 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A38" s="11"/>
-      <c r="B38" s="31" t="s">
-        <v>143</v>
+      <c r="A38" s="16"/>
+      <c r="B38" s="18" t="s">
+        <v>142</v>
       </c>
       <c r="C38" s="6" t="b">
         <v>1</v>
@@ -2672,8 +2670,8 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A39" s="11"/>
-      <c r="B39" s="17"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="6" t="b">
         <v>0</v>
       </c>
@@ -2703,106 +2701,106 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11" t="s">
-        <v>140</v>
+      <c r="A40" s="16"/>
+      <c r="B40" s="16" t="s">
+        <v>139</v>
       </c>
       <c r="C40" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="6" t="s">
+      <c r="D42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="6" t="s">
-        <v>139</v>
-      </c>
       <c r="D43" s="2" t="s">
         <v>6</v>
       </c>
@@ -2829,12 +2827,12 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A44" s="11"/>
+      <c r="A44" s="16"/>
       <c r="B44" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>42</v>
@@ -2863,11 +2861,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B38:B39"/>
     <mergeCell ref="A22:A44"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B15:B16"/>
@@ -2881,6 +2874,11 @@
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B38:B39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2903,8 +2901,8 @@
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="20"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="2">
         <v>1</v>
       </c>
@@ -2916,10 +2914,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2936,8 +2934,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2952,8 +2950,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2968,15 +2966,15 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
@@ -2988,8 +2986,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -3004,8 +3002,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3048,8 +3046,8 @@
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="20"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="2">
         <v>1</v>
       </c>
@@ -3061,11 +3059,11 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>108</v>
+      <c r="B4" s="17" t="s">
+        <v>107</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -3081,8 +3079,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3097,8 +3095,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
@@ -3113,14 +3111,14 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>109</v>
+      <c r="B7" s="17" t="s">
+        <v>108</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
@@ -3133,8 +3131,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -3149,8 +3147,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3193,21 +3191,21 @@
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="20"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -3218,10 +3216,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -3261,13 +3259,13 @@
     </row>
     <row r="4" spans="1:4" ht="36" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -3278,10 +3276,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -3298,7 +3296,7 @@
   <dimension ref="A2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:F5"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3323,10 +3321,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -3343,8 +3341,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3359,8 +3357,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
@@ -3411,7 +3409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B756B3-0CCB-4FEF-B812-B5F711EEFDE9}">
   <dimension ref="A3:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -3422,10 +3420,10 @@
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="2">
         <v>1</v>
       </c>
@@ -3452,14 +3450,14 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
@@ -3489,10 +3487,10 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="1" t="s">
         <v>34</v>
       </c>
@@ -3522,10 +3520,10 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
@@ -3555,12 +3553,12 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
@@ -3590,10 +3588,10 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
@@ -3623,12 +3621,12 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
@@ -3658,10 +3656,10 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="1" t="s">
         <v>10</v>
       </c>
@@ -3691,12 +3689,12 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
@@ -3726,10 +3724,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
@@ -3759,14 +3757,14 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="1" t="s">
         <v>17</v>
       </c>
@@ -3796,10 +3794,10 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A14" s="14"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="1" t="s">
         <v>21</v>
       </c>
@@ -3829,12 +3827,12 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A15" s="14"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="1" t="s">
         <v>18</v>
       </c>
@@ -3864,12 +3862,12 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A16" s="14"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="1" t="s">
         <v>24</v>
       </c>
@@ -3899,10 +3897,10 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A17" s="14"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="1" t="s">
         <v>26</v>
       </c>
@@ -3932,12 +3930,12 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A18" s="14"/>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="1" t="s">
         <v>29</v>
       </c>
@@ -3967,10 +3965,10 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A19" s="14"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="1" t="s">
         <v>30</v>
       </c>
@@ -4000,10 +3998,10 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A20" s="14"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="1" t="s">
         <v>28</v>
       </c>
@@ -4033,147 +4031,147 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A21" s="14"/>
-      <c r="B21" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A22" s="21"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A22" s="14"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A23" s="21"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A23" s="14"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A24" s="21"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A24" s="14"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A25" s="21"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A25" s="14"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>42</v>
       </c>
@@ -4200,12 +4198,12 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A26" s="14"/>
-      <c r="B26" s="11" t="s">
+      <c r="A26" s="21"/>
+      <c r="B26" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="1" t="s">
         <v>12</v>
       </c>
@@ -4270,10 +4268,10 @@
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="2">
         <v>1</v>
       </c>
@@ -4300,14 +4298,14 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
@@ -4337,10 +4335,10 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="1" t="s">
         <v>34</v>
       </c>
@@ -4370,10 +4368,10 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
@@ -4403,12 +4401,12 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
@@ -4438,10 +4436,10 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
@@ -4471,12 +4469,12 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
@@ -4506,10 +4504,10 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="1" t="s">
         <v>10</v>
       </c>
@@ -4539,12 +4537,12 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
@@ -4574,10 +4572,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
@@ -4607,14 +4605,14 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="1" t="s">
         <v>37</v>
       </c>
@@ -4644,10 +4642,10 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A14" s="32"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="1" t="s">
         <v>21</v>
       </c>
@@ -4677,12 +4675,12 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A15" s="32"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="1"/>
+      <c r="B15" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="1" t="s">
         <v>19</v>
       </c>
@@ -4712,12 +4710,12 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A16" s="32"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="1"/>
+      <c r="B16" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="1" t="s">
         <v>24</v>
       </c>
@@ -4747,10 +4745,10 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A17" s="32"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="1" t="s">
         <v>26</v>
       </c>
@@ -4780,12 +4778,12 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A18" s="32"/>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="1"/>
+      <c r="B18" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="1" t="s">
         <v>29</v>
       </c>
@@ -4815,10 +4813,10 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A19" s="32"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="1" t="s">
         <v>30</v>
       </c>
@@ -4848,10 +4846,10 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A20" s="32"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="1" t="s">
         <v>28</v>
       </c>
@@ -4881,48 +4879,48 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A21" s="32"/>
-      <c r="B21" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A22" s="1"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A22" s="32"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>42</v>
       </c>
@@ -4949,79 +4947,79 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A23" s="32"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A24" s="1"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A24" s="32"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A25" s="1"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A25" s="32"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>42</v>
       </c>
@@ -5048,12 +5046,12 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A26" s="32"/>
-      <c r="B26" s="11" t="s">
+      <c r="A26" s="1"/>
+      <c r="B26" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="1" t="s">
         <v>12</v>
       </c>
@@ -5084,11 +5082,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B21:D25"/>
-    <mergeCell ref="B13:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D17"/>
-    <mergeCell ref="B18:D20"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="A4:A12"/>
@@ -5096,6 +5089,11 @@
     <mergeCell ref="B7:D8"/>
     <mergeCell ref="B9:D10"/>
     <mergeCell ref="B11:D12"/>
+    <mergeCell ref="B21:D25"/>
+    <mergeCell ref="B13:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D17"/>
+    <mergeCell ref="B18:D20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5117,10 +5115,10 @@
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="2">
         <v>1</v>
       </c>
@@ -5135,14 +5133,14 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="6">
         <v>2</v>
       </c>
@@ -5160,10 +5158,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="6">
         <v>1</v>
       </c>
@@ -5181,10 +5179,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="6">
         <v>0</v>
       </c>
@@ -5202,12 +5200,12 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
@@ -5225,10 +5223,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="1" t="s">
         <v>40</v>
       </c>
@@ -5246,14 +5244,14 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="1" t="s">
         <v>29</v>
       </c>
@@ -5271,10 +5269,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="16"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="1" t="s">
         <v>30</v>
       </c>
@@ -5292,10 +5290,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="16"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="1" t="s">
         <v>28</v>
       </c>
@@ -5313,14 +5311,14 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="16"/>
-      <c r="B12" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>6</v>
@@ -5336,12 +5334,12 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="17"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="1" t="s">
         <v>12</v>
       </c>
@@ -5389,10 +5387,10 @@
   <sheetData>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="2">
         <v>1</v>
       </c>
@@ -5426,31 +5424,31 @@
       <c r="P3" s="9"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="B4" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="6" t="b">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>42</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>42</v>
@@ -5469,10 +5467,10 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="6" t="b">
         <v>0</v>
       </c>
@@ -5483,7 +5481,7 @@
         <v>42</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>42</v>
@@ -5498,42 +5496,42 @@
         <v>42</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="6" t="b">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>42</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>42</v>
@@ -5549,10 +5547,10 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="6" t="b">
         <v>0</v>
       </c>
@@ -5560,7 +5558,7 @@
         <v>42</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>42</v>
@@ -5578,22 +5576,22 @@
         <v>42</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="6" t="b">
         <v>1</v>
       </c>
@@ -5601,13 +5599,13 @@
         <v>42</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>42</v>
@@ -5616,7 +5614,7 @@
         <v>42</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>42</v>
@@ -5629,65 +5627,65 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="6" t="b">
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="6" t="s">
-        <v>65</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>42</v>
@@ -5709,10 +5707,10 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="6">
         <v>1</v>
       </c>
@@ -5729,29 +5727,29 @@
         <v>42</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="6">
         <v>0</v>
       </c>
@@ -5777,7 +5775,7 @@
         <v>42</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>42</v>
@@ -5787,29 +5785,29 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="6" t="s">
         <v>46</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>42</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>42</v>
@@ -5828,30 +5826,30 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="6" t="s">
         <v>47</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>42</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>42</v>
@@ -5867,10 +5865,10 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="6" t="s">
         <v>48</v>
       </c>
@@ -5878,13 +5876,13 @@
         <v>42</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>42</v>
@@ -5893,7 +5891,7 @@
         <v>42</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>42</v>
@@ -5906,10 +5904,10 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="6" t="s">
         <v>49</v>
       </c>
@@ -5938,17 +5936,17 @@
         <v>42</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="6" t="s">
         <v>51</v>
       </c>
@@ -5984,29 +5982,29 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="6" t="s">
         <v>52</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>42</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>42</v>
@@ -6025,30 +6023,30 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="6" t="s">
         <v>53</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>42</v>
@@ -6064,10 +6062,10 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="6" t="s">
         <v>54</v>
       </c>
@@ -6075,13 +6073,13 @@
         <v>42</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>42</v>
@@ -6090,7 +6088,7 @@
         <v>42</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>42</v>
@@ -6103,10 +6101,10 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="6" t="s">
         <v>55</v>
       </c>
@@ -6135,17 +6133,17 @@
         <v>42</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="6" t="s">
         <v>3</v>
       </c>
@@ -6181,51 +6179,51 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O23" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="6" t="s">
         <v>10</v>
       </c>
@@ -6257,32 +6255,32 @@
         <v>42</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>42</v>
@@ -6304,10 +6302,10 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A26" s="16"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="6" t="s">
         <v>30</v>
       </c>
@@ -6324,29 +6322,29 @@
         <v>42</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A27" s="16"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
       <c r="E27" s="6" t="s">
         <v>28</v>
       </c>
@@ -6372,7 +6370,7 @@
         <v>42</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>42</v>
@@ -6382,29 +6380,29 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A28" s="16"/>
-      <c r="B28" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="6" t="s">
         <v>52</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>42</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>42</v>
@@ -6423,30 +6421,30 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A29" s="16"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
       <c r="E29" s="6" t="s">
         <v>53</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>42</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>42</v>
@@ -6462,10 +6460,10 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A30" s="16"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
       <c r="E30" s="6" t="s">
         <v>54</v>
       </c>
@@ -6473,13 +6471,13 @@
         <v>42</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>42</v>
@@ -6488,7 +6486,7 @@
         <v>42</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>42</v>
@@ -6501,12 +6499,12 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A31" s="16"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
       <c r="E31" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>42</v>
@@ -6533,19 +6531,19 @@
         <v>42</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="16"/>
-      <c r="B32" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="13"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="20"/>
       <c r="E32" s="6" t="b">
         <v>1</v>
       </c>
@@ -6581,10 +6579,10 @@
       </c>
     </row>
     <row r="33" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="16"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="25"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="28"/>
       <c r="E33" s="6" t="b">
         <v>0</v>
       </c>
@@ -6620,12 +6618,12 @@
       </c>
     </row>
     <row r="34" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="16"/>
-      <c r="B34" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="13"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="20"/>
       <c r="E34" s="6" t="b">
         <v>1</v>
       </c>
@@ -6661,10 +6659,10 @@
       </c>
     </row>
     <row r="35" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="16"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="25"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="28"/>
       <c r="E35" s="6" t="b">
         <v>0</v>
       </c>
@@ -6700,12 +6698,12 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="16"/>
-      <c r="B36" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="13"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="6" t="b">
         <v>1</v>
       </c>
@@ -6741,10 +6739,10 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="16"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="25"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="28"/>
       <c r="E37" s="6" t="b">
         <v>0</v>
       </c>
@@ -6780,17 +6778,17 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A38" s="16"/>
-      <c r="B38" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
       <c r="E38" s="6" t="s">
         <v>52</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>42</v>
@@ -6821,10 +6819,10 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A39" s="16"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
       <c r="E39" s="6" t="s">
         <v>53</v>
       </c>
@@ -6835,7 +6833,7 @@
         <v>42</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>42</v>
@@ -6860,10 +6858,10 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A40" s="16"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
       <c r="E40" s="6" t="s">
         <v>54</v>
       </c>
@@ -6871,7 +6869,7 @@
         <v>42</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>42</v>
@@ -6899,10 +6897,10 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A41" s="16"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
       <c r="E41" s="6" t="s">
         <v>55</v>
       </c>
@@ -6916,19 +6914,19 @@
         <v>42</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>42</v>
@@ -6938,14 +6936,14 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A42" s="16"/>
-      <c r="B42" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
       <c r="E42" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>42</v>
@@ -6972,19 +6970,19 @@
         <v>42</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O42" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A43" s="16"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
       <c r="E43" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>42</v>
@@ -7014,16 +7012,16 @@
         <v>42</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A44" s="16"/>
-      <c r="B44" s="11" t="s">
+      <c r="A44" s="23"/>
+      <c r="B44" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
       <c r="E44" s="6" t="s">
         <v>12</v>
       </c>
@@ -7052,32 +7050,32 @@
         <v>42</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B10:D12"/>
+    <mergeCell ref="B13:D17"/>
+    <mergeCell ref="B18:D22"/>
+    <mergeCell ref="B23:D24"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B25:D27"/>
+    <mergeCell ref="B28:D31"/>
+    <mergeCell ref="B32:D33"/>
+    <mergeCell ref="B34:D35"/>
+    <mergeCell ref="B36:D37"/>
     <mergeCell ref="B42:D43"/>
     <mergeCell ref="A4:A24"/>
     <mergeCell ref="B8:D9"/>
     <mergeCell ref="B4:D5"/>
     <mergeCell ref="B6:D7"/>
     <mergeCell ref="B38:D41"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B25:D27"/>
-    <mergeCell ref="B28:D31"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="B34:D35"/>
-    <mergeCell ref="B36:D37"/>
     <mergeCell ref="A25:A44"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B10:D12"/>
-    <mergeCell ref="B13:D17"/>
-    <mergeCell ref="B18:D22"/>
-    <mergeCell ref="B23:D24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7099,10 +7097,10 @@
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="2">
         <v>1</v>
       </c>
@@ -7117,14 +7115,14 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="6">
         <v>2</v>
       </c>
@@ -7142,10 +7140,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="16"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="6">
         <v>1</v>
       </c>
@@ -7163,10 +7161,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="16"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="6">
         <v>0</v>
       </c>
@@ -7184,12 +7182,12 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="16"/>
-      <c r="B7" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="6">
         <v>1</v>
       </c>
@@ -7207,36 +7205,36 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="16"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="23"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="16"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="F9" s="2" t="s">
         <v>5</v>
       </c>
@@ -7251,36 +7249,36 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="16"/>
-      <c r="B10" s="21" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="19"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="17"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="6" t="s">
-        <v>80</v>
-      </c>
       <c r="F11" s="2" t="s">
         <v>42</v>
       </c>
@@ -7295,14 +7293,14 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="6" t="s">
         <v>24</v>
       </c>
@@ -7320,10 +7318,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="34"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="6" t="s">
         <v>26</v>
       </c>
@@ -7341,10 +7339,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="34"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="6" t="s">
         <v>28</v>
       </c>
@@ -7362,12 +7360,12 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="34"/>
-      <c r="B15" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
       <c r="E15" s="6" t="b">
         <v>1</v>
       </c>
@@ -7385,10 +7383,10 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="34"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
       <c r="E16" s="6" t="b">
         <v>0</v>
       </c>
@@ -7406,14 +7404,14 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="35"/>
-      <c r="B17" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>6</v>
@@ -7429,12 +7427,12 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="34"/>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="6" t="s">
         <v>12</v>
       </c>
@@ -7453,6 +7451,8 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B10:D11"/>
     <mergeCell ref="A4:A11"/>
@@ -7461,8 +7461,6 @@
     <mergeCell ref="B4:D6"/>
     <mergeCell ref="B8:D9"/>
     <mergeCell ref="B12:D14"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7484,10 +7482,10 @@
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="2">
         <v>1</v>
       </c>
@@ -7499,14 +7497,14 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="6">
         <v>2</v>
       </c>
@@ -7521,10 +7519,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="6">
         <v>1</v>
       </c>
@@ -7539,10 +7537,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="6">
         <v>0</v>
       </c>
@@ -7557,14 +7555,14 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
+      <c r="B7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="6" t="b">
         <v>1</v>
       </c>
@@ -7579,10 +7577,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="6" t="b">
         <v>0</v>
       </c>
@@ -7597,12 +7595,12 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="6" t="b">
         <v>1</v>
       </c>
@@ -7617,10 +7615,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="6" t="b">
         <v>0</v>
       </c>
@@ -7652,8 +7650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010E08D5-8E4E-45F5-B16C-809EDCA6E87C}">
   <dimension ref="A3:Q30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7663,10 +7661,10 @@
   <sheetData>
     <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="2">
         <v>1</v>
       </c>
@@ -7697,16 +7695,16 @@
       <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="B4" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>5</v>
@@ -7727,19 +7725,19 @@
         <v>42</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>6</v>
@@ -7757,7 +7755,7 @@
         <v>32</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>42</v>
@@ -7767,12 +7765,12 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="6">
         <v>1</v>
       </c>
@@ -7802,10 +7800,10 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="6">
         <v>2</v>
       </c>
@@ -7835,12 +7833,12 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>42</v>
@@ -7864,16 +7862,16 @@
         <v>42</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>42</v>
@@ -7901,10 +7899,10 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="6" t="s">
         <v>50</v>
       </c>
@@ -7921,27 +7919,27 @@
         <v>6</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>42</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>5</v>
@@ -7959,22 +7957,22 @@
         <v>31</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>42</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>42</v>
@@ -7995,21 +7993,21 @@
         <v>42</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>5</v>
@@ -8027,22 +8025,22 @@
         <v>31</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>42</v>
@@ -8066,21 +8064,21 @@
         <v>42</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>5</v>
       </c>
@@ -8094,23 +8092,23 @@
         <v>5</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>42</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="6" t="s">
         <v>20</v>
       </c>
@@ -8140,48 +8138,48 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>5</v>
       </c>
@@ -8195,25 +8193,25 @@
         <v>42</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="6">
         <v>1</v>
       </c>
@@ -8243,10 +8241,10 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="6">
         <v>2</v>
       </c>
@@ -8276,12 +8274,12 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>6</v>
@@ -8296,7 +8294,7 @@
         <v>6</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>42</v>
@@ -8309,12 +8307,12 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="6" t="b">
         <v>1</v>
       </c>
@@ -8344,10 +8342,10 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="6" t="b">
         <v>0</v>
       </c>
@@ -8377,14 +8375,14 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>42</v>
@@ -8412,12 +8410,12 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>42</v>
@@ -8445,12 +8443,12 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="6" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>42</v>
@@ -8465,7 +8463,7 @@
         <v>42</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>42</v>
@@ -8478,12 +8476,12 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
       <c r="E27" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>6</v>
@@ -8501,7 +8499,7 @@
         <v>32</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>42</v>
@@ -8511,12 +8509,12 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>42</v>
@@ -8537,19 +8535,19 @@
         <v>42</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
       <c r="E29" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>42</v>
@@ -8573,16 +8571,16 @@
         <v>42</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11" t="s">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
       <c r="E30" s="6" t="s">
         <v>12</v>
       </c>
@@ -8599,20 +8597,26 @@
         <v>6</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A4:A14"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="B6:D10"/>
+    <mergeCell ref="B13:D14"/>
+    <mergeCell ref="B11:D12"/>
     <mergeCell ref="B17:D18"/>
     <mergeCell ref="A15:A30"/>
     <mergeCell ref="B15:D16"/>
@@ -8620,12 +8624,6 @@
     <mergeCell ref="B22:D23"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B24:D29"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="A4:A14"/>
-    <mergeCell ref="B4:D5"/>
-    <mergeCell ref="B6:D10"/>
-    <mergeCell ref="B13:D14"/>
-    <mergeCell ref="B11:D12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
